--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.2187975624427</v>
+        <v>457.0152511121689</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.6037387904743</v>
+        <v>625.3084286615807</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.3040135445266</v>
+        <v>565.6298698560103</v>
       </c>
       <c r="AD2" t="n">
-        <v>362218.7975624427</v>
+        <v>457015.2511121689</v>
       </c>
       <c r="AE2" t="n">
-        <v>495603.7387904742</v>
+        <v>625308.4286615807</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.426492944410341e-06</v>
+        <v>2.056524115090459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>448304.0135445266</v>
+        <v>565629.8698560103</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.807402173067</v>
+        <v>341.4223714778468</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.9529260143809</v>
+        <v>467.1491511479633</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.504085356181</v>
+        <v>422.5650918103524</v>
       </c>
       <c r="AD3" t="n">
-        <v>263807.402173067</v>
+        <v>341422.3714778468</v>
       </c>
       <c r="AE3" t="n">
-        <v>360952.9260143809</v>
+        <v>467149.1511479633</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793468139488709e-06</v>
+        <v>2.585579194735911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.94010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>326504.085356181</v>
+        <v>422565.0918103524</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.0594935195273</v>
+        <v>306.1264358833982</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.3552573600082</v>
+        <v>418.8556949208582</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.3992468331281</v>
+        <v>378.8806952652707</v>
       </c>
       <c r="AD4" t="n">
-        <v>237059.4935195273</v>
+        <v>306126.4358833982</v>
       </c>
       <c r="AE4" t="n">
-        <v>324355.2573600082</v>
+        <v>418855.6949208583</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.946518410073168e-06</v>
+        <v>2.806226323424069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.61197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>293399.2468331282</v>
+        <v>378880.6952652707</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.6827160562264</v>
+        <v>289.1163801331647</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.8937808773861</v>
+        <v>395.5817862126918</v>
       </c>
       <c r="AC5" t="n">
-        <v>283.0316375797206</v>
+        <v>357.8280157390757</v>
       </c>
       <c r="AD5" t="n">
-        <v>228682.7160562264</v>
+        <v>289116.3801331647</v>
       </c>
       <c r="AE5" t="n">
-        <v>312893.780877386</v>
+        <v>395581.7862126918</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.004615424482916e-06</v>
+        <v>2.889982721670955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>283031.6375797206</v>
+        <v>357828.0157390757</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.202892896962</v>
+        <v>283.184494406261</v>
       </c>
       <c r="AB6" t="n">
-        <v>293.0818480261773</v>
+        <v>387.4655184648135</v>
       </c>
       <c r="AC6" t="n">
-        <v>265.1105277936024</v>
+        <v>350.4863531938015</v>
       </c>
       <c r="AD6" t="n">
-        <v>214202.892896962</v>
+        <v>283184.494406261</v>
       </c>
       <c r="AE6" t="n">
-        <v>293081.8480261773</v>
+        <v>387465.5184648135</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.043175596361142e-06</v>
+        <v>2.945573549273949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>265110.5277936024</v>
+        <v>350486.3531938015</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.8774599433219</v>
+        <v>375.6343614469002</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.3055703542843</v>
+        <v>513.9595051500966</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.1465825871554</v>
+        <v>464.9079313252666</v>
       </c>
       <c r="AD2" t="n">
-        <v>299877.4599433219</v>
+        <v>375634.3614469002</v>
       </c>
       <c r="AE2" t="n">
-        <v>410305.5703542843</v>
+        <v>513959.5051500966</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.646909568507477e-06</v>
+        <v>2.411013653281517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>371146.5825871554</v>
+        <v>464907.9313252666</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.9237456502692</v>
+        <v>303.5098759361559</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.8553240845447</v>
+        <v>415.2756021665635</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.0922896457044</v>
+        <v>375.6422815387541</v>
       </c>
       <c r="AD3" t="n">
-        <v>227923.7456502691</v>
+        <v>303509.875936156</v>
       </c>
       <c r="AE3" t="n">
-        <v>311855.3240845447</v>
+        <v>415275.6021665635</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.982424684032899e-06</v>
+        <v>2.902195160683419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>282092.2896457044</v>
+        <v>375642.2815387541</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.8101114162363</v>
+        <v>271.0641590016914</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.8619859070955</v>
+        <v>370.8819408528213</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.2477893574595</v>
+        <v>335.4854889539005</v>
       </c>
       <c r="AD4" t="n">
-        <v>203810.1114162363</v>
+        <v>271064.1590016914</v>
       </c>
       <c r="AE4" t="n">
-        <v>278861.9859070955</v>
+        <v>370881.9408528213</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.12462320978527e-06</v>
+        <v>3.110368453025253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>252247.7893574595</v>
+        <v>335485.4889539005</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.235060261783</v>
+        <v>267.4891078472381</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.9704431974495</v>
+        <v>365.9903981431727</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.8230886186973</v>
+        <v>331.0607882151374</v>
       </c>
       <c r="AD5" t="n">
-        <v>200235.060261783</v>
+        <v>267489.1078472381</v>
       </c>
       <c r="AE5" t="n">
-        <v>273970.4431974495</v>
+        <v>365990.3981431727</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.156689713809578e-06</v>
+        <v>3.157312608608537e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>247823.0886186972</v>
+        <v>331060.7882151374</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.5534926766522</v>
+        <v>235.6064616959985</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.463545319806</v>
+        <v>322.3671551158172</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.8003578367315</v>
+        <v>291.6008862768032</v>
       </c>
       <c r="AD2" t="n">
-        <v>173553.4926766522</v>
+        <v>235606.4616959986</v>
       </c>
       <c r="AE2" t="n">
-        <v>237463.545319806</v>
+        <v>322367.1551158173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.34137415772887e-06</v>
+        <v>3.622394824644134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>214800.3578367315</v>
+        <v>291600.8862768032</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3732895088258</v>
+        <v>235.4262585281721</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.2169833955833</v>
+        <v>322.1205931915946</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5773274365047</v>
+        <v>291.3778558765764</v>
       </c>
       <c r="AD3" t="n">
-        <v>173373.2895088258</v>
+        <v>235426.2585281721</v>
       </c>
       <c r="AE3" t="n">
-        <v>237216.9833955833</v>
+        <v>322120.5931915946</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.352097844289851e-06</v>
+        <v>3.638985691409864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>214577.3274365047</v>
+        <v>291377.8558765764</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.5724933339494</v>
+        <v>280.6589660818882</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.324039883455</v>
+        <v>384.0099791929604</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.0432894104675</v>
+        <v>347.3606057401743</v>
       </c>
       <c r="AD2" t="n">
-        <v>216572.4933339494</v>
+        <v>280658.9660818882</v>
       </c>
       <c r="AE2" t="n">
-        <v>296324.039883455</v>
+        <v>384009.9791929604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073866734767284e-06</v>
+        <v>3.134222287600969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.18489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>268043.2894104675</v>
+        <v>347360.6057401743</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.495029796075</v>
+        <v>247.5814130354591</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.065994996257</v>
+        <v>338.7518118360267</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.1046088072244</v>
+        <v>306.4218143556513</v>
       </c>
       <c r="AD3" t="n">
-        <v>183495.029796075</v>
+        <v>247581.4130354591</v>
       </c>
       <c r="AE3" t="n">
-        <v>251065.994996257</v>
+        <v>338751.8118360267</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.277783903639014e-06</v>
+        <v>3.44240107497806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>227104.6088072244</v>
+        <v>306421.8143556513</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.1335524559196</v>
+        <v>233.4334533524558</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.8889645833449</v>
+        <v>319.3939492338214</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.280614279329</v>
+        <v>288.9114389912634</v>
       </c>
       <c r="AD2" t="n">
-        <v>173133.5524559196</v>
+        <v>233433.4533524558</v>
       </c>
       <c r="AE2" t="n">
-        <v>236888.9645833449</v>
+        <v>319393.9492338214</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.371941220231551e-06</v>
+        <v>3.748824612374375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214280.614279329</v>
+        <v>288911.4389912634</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.4415140136913</v>
+        <v>395.1833405380946</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.7597751865369</v>
+        <v>540.7072807827583</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.2212983968217</v>
+        <v>489.102936792286</v>
       </c>
       <c r="AD2" t="n">
-        <v>310441.5140136913</v>
+        <v>395183.3405380946</v>
       </c>
       <c r="AE2" t="n">
-        <v>424759.7751865369</v>
+        <v>540707.2807827583</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.588539773044053e-06</v>
+        <v>2.315910354506716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>384221.2983968217</v>
+        <v>489102.9367922859</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.510644509516</v>
+        <v>310.2188543830212</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.8137626323159</v>
+        <v>424.4551224568042</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.1459228303272</v>
+        <v>383.9457212960319</v>
       </c>
       <c r="AD3" t="n">
-        <v>242510.644509516</v>
+        <v>310218.8543830211</v>
       </c>
       <c r="AE3" t="n">
-        <v>331813.7626323159</v>
+        <v>424455.1224568043</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940663217855201e-06</v>
+        <v>2.829266296700111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>300145.9228303272</v>
+        <v>383945.721296032</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.9754271691739</v>
+        <v>278.2947952448099</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.6118399667665</v>
+        <v>380.7752163538137</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.0173064682851</v>
+        <v>344.4345641263776</v>
       </c>
       <c r="AD4" t="n">
-        <v>218975.4271691739</v>
+        <v>278294.7952448099</v>
       </c>
       <c r="AE4" t="n">
-        <v>299611.8399667665</v>
+        <v>380775.2163538137</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.069571746376958e-06</v>
+        <v>3.017200272955349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>271017.3064682852</v>
+        <v>344434.5641263776</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>204.7350617907675</v>
+        <v>272.443182155721</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.1275438154591</v>
+        <v>372.7687811703724</v>
       </c>
       <c r="AC5" t="n">
-        <v>253.392564195271</v>
+        <v>337.1922518797416</v>
       </c>
       <c r="AD5" t="n">
-        <v>204735.0617907675</v>
+        <v>272443.182155721</v>
       </c>
       <c r="AE5" t="n">
-        <v>280127.5438154591</v>
+        <v>372768.7811703724</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.115779722722886e-06</v>
+        <v>3.084566248108283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.7265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>253392.564195271</v>
+        <v>337192.2518797416</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.7415232152458</v>
+        <v>228.2244190635953</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.8795964136031</v>
+        <v>312.2667187134322</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8447717735041</v>
+        <v>282.464421348607</v>
       </c>
       <c r="AD2" t="n">
-        <v>168741.5232152458</v>
+        <v>228224.4190635954</v>
       </c>
       <c r="AE2" t="n">
-        <v>230879.5964136031</v>
+        <v>312266.7187134322</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.367863401510678e-06</v>
+        <v>3.793873374834876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>208844.7717735041</v>
+        <v>282464.421348607</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.5499169400225</v>
+        <v>326.6488323377818</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.5499380731691</v>
+        <v>446.9353431339785</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.571136965953</v>
+        <v>404.2804612629646</v>
       </c>
       <c r="AD2" t="n">
-        <v>252549.9169400225</v>
+        <v>326648.8323377817</v>
       </c>
       <c r="AE2" t="n">
-        <v>345549.9380731691</v>
+        <v>446935.3431339785</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846221619503157e-06</v>
+        <v>2.741349612112619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>312571.136965953</v>
+        <v>404280.4612629646</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.02868794101</v>
+        <v>263.809049662224</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.9515872498924</v>
+        <v>360.9551801817277</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.0923480457831</v>
+        <v>326.50612438896</v>
       </c>
       <c r="AD3" t="n">
-        <v>198028.6879410101</v>
+        <v>263809.049662224</v>
       </c>
       <c r="AE3" t="n">
-        <v>270951.5872498924</v>
+        <v>360955.1801817277</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.161256040305858e-06</v>
+        <v>3.209126328703134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>245092.3480457831</v>
+        <v>326506.12438896</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.1311617216081</v>
+        <v>258.911523442822</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.2505758129021</v>
+        <v>354.254168744734</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.0308717354085</v>
+        <v>320.4446480785844</v>
       </c>
       <c r="AD4" t="n">
-        <v>193131.1617216081</v>
+        <v>258911.523442822</v>
       </c>
       <c r="AE4" t="n">
-        <v>264250.5758129021</v>
+        <v>354254.168744734</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.207380482868301e-06</v>
+        <v>3.277613893463366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>239030.8717354085</v>
+        <v>320444.6480785843</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.1220023799944</v>
+        <v>364.6217227418897</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.6435258837491</v>
+        <v>498.8915270305708</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.9336876239825</v>
+        <v>451.2780198894282</v>
       </c>
       <c r="AD2" t="n">
-        <v>281122.0023799944</v>
+        <v>364621.7227418897</v>
       </c>
       <c r="AE2" t="n">
-        <v>384643.5258837491</v>
+        <v>498891.5270305708</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708013484107922e-06</v>
+        <v>2.511535581979709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.58072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>347933.6876239824</v>
+        <v>451278.0198894282</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.786889155984</v>
+        <v>287.6549381291603</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.0903621731815</v>
+        <v>393.5821767885421</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.2592819939485</v>
+        <v>356.0192462318974</v>
       </c>
       <c r="AD3" t="n">
-        <v>220786.889155984</v>
+        <v>287654.9381291603</v>
       </c>
       <c r="AE3" t="n">
-        <v>302090.3621731815</v>
+        <v>393582.1767885421</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.038354553561762e-06</v>
+        <v>2.997283123109851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>273259.2819939485</v>
+        <v>356019.2462318974</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.2924630970164</v>
+        <v>266.0751712156207</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.6807401721644</v>
+        <v>364.0557876653122</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.6564730400353</v>
+        <v>329.310814246041</v>
       </c>
       <c r="AD4" t="n">
-        <v>199292.4630970164</v>
+        <v>266075.1712156208</v>
       </c>
       <c r="AE4" t="n">
-        <v>272680.7401721644</v>
+        <v>364055.7876653122</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.158429827184077e-06</v>
+        <v>3.173846906138708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.70052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>246656.4730400353</v>
+        <v>329310.8142460411</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.6617612372999</v>
+        <v>266.4444693559043</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.1860301799842</v>
+        <v>364.5610776731323</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.113538878688</v>
+        <v>329.7678800846938</v>
       </c>
       <c r="AD5" t="n">
-        <v>199661.7612372999</v>
+        <v>266444.4693559043</v>
       </c>
       <c r="AE5" t="n">
-        <v>273186.0301799842</v>
+        <v>364561.0776731323</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.152604006965699e-06</v>
+        <v>3.16528037261376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>247113.538878688</v>
+        <v>329767.8800846938</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.5073711748803</v>
+        <v>435.8239776119296</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.2654514833665</v>
+        <v>596.3135933655479</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.6702926049733</v>
+        <v>539.4022609461239</v>
       </c>
       <c r="AD2" t="n">
-        <v>341507.3711748803</v>
+        <v>435823.9776119296</v>
       </c>
       <c r="AE2" t="n">
-        <v>467265.4514833665</v>
+        <v>596313.5933655479</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.478435298642005e-06</v>
+        <v>2.138959542958966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>422670.2926049733</v>
+        <v>539402.2609461239</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.4466766931401</v>
+        <v>333.5992927135344</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.8816566802894</v>
+        <v>456.445269652754</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.3940038323254</v>
+        <v>412.8827737420538</v>
       </c>
       <c r="AD3" t="n">
-        <v>256446.6766931402</v>
+        <v>333599.2927135344</v>
       </c>
       <c r="AE3" t="n">
-        <v>350881.6566802894</v>
+        <v>456445.269652754</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.841803294444273e-06</v>
+        <v>2.664670369087812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.62760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>317394.0038323255</v>
+        <v>412882.7737420538</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.3364719532447</v>
+        <v>299.8218414192888</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.524766771132</v>
+        <v>410.2294706359859</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.3160872758893</v>
+        <v>371.0777457191649</v>
       </c>
       <c r="AD4" t="n">
-        <v>231336.4719532446</v>
+        <v>299821.8414192888</v>
       </c>
       <c r="AE4" t="n">
-        <v>316524.766771132</v>
+        <v>410229.470635986</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.985536465018998e-06</v>
+        <v>2.872619568571179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>286316.0872758893</v>
+        <v>371077.7457191649</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.7669104393317</v>
+        <v>281.3375312513962</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.1170734765736</v>
+        <v>384.9384219940638</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.3332685694339</v>
+        <v>348.200439263418</v>
       </c>
       <c r="AD5" t="n">
-        <v>212766.9104393317</v>
+        <v>281337.5312513962</v>
       </c>
       <c r="AE5" t="n">
-        <v>291117.0734765736</v>
+        <v>384938.4219940638</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.05226216018186e-06</v>
+        <v>2.969156469820946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>263333.2685694339</v>
+        <v>348200.439263418</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>211.922680749415</v>
+        <v>280.4933015614793</v>
       </c>
       <c r="AB6" t="n">
-        <v>289.9619611700447</v>
+        <v>383.7833096875343</v>
       </c>
       <c r="AC6" t="n">
-        <v>262.2883985602294</v>
+        <v>347.1555692542134</v>
       </c>
       <c r="AD6" t="n">
-        <v>211922.680749415</v>
+        <v>280493.3015614793</v>
       </c>
       <c r="AE6" t="n">
-        <v>289961.9611700447</v>
+        <v>383783.3096875342</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.059155893849955e-06</v>
+        <v>2.97913013416022e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.8828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>262288.3985602295</v>
+        <v>347155.5692542134</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.9923541789761</v>
+        <v>298.7692964231977</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.2127090665447</v>
+        <v>408.7893321373261</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.7018820960881</v>
+        <v>369.77505201757</v>
       </c>
       <c r="AD2" t="n">
-        <v>225992.3541789761</v>
+        <v>298769.2964231977</v>
       </c>
       <c r="AE2" t="n">
-        <v>309212.7090665447</v>
+        <v>408789.3321373261</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.988833173535183e-06</v>
+        <v>2.986600176579811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279701.8820960881</v>
+        <v>369775.05201757</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.6411461199558</v>
+        <v>251.3222791309747</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.370650147445</v>
+        <v>343.8702298632732</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.9984337124058</v>
+        <v>311.0517377501237</v>
       </c>
       <c r="AD3" t="n">
-        <v>186641.1461199558</v>
+        <v>251322.2791309747</v>
       </c>
       <c r="AE3" t="n">
-        <v>255370.650147445</v>
+        <v>343870.2298632732</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.259763490283228e-06</v>
+        <v>3.393452064715928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>230998.4337124058</v>
+        <v>311051.7377501237</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.116476575002</v>
+        <v>251.797609586021</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.0210182461386</v>
+        <v>344.5205979619668</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.5867315925577</v>
+        <v>311.6400356302756</v>
       </c>
       <c r="AD4" t="n">
-        <v>187116.476575002</v>
+        <v>251797.609586021</v>
       </c>
       <c r="AE4" t="n">
-        <v>256021.0182461386</v>
+        <v>344520.5979619668</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.259203506539479e-06</v>
+        <v>3.392611145743831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>231586.7315925577</v>
+        <v>311640.0356302756</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.7095600519115</v>
+        <v>252.4045037879619</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.5689894580136</v>
+        <v>345.3509773833446</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.7960894115812</v>
+        <v>312.3911648051222</v>
       </c>
       <c r="AD2" t="n">
-        <v>189709.5600519115</v>
+        <v>252404.5037879619</v>
       </c>
       <c r="AE2" t="n">
-        <v>259568.9894580136</v>
+        <v>345350.9773833446</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256430919291559e-06</v>
+        <v>3.460793586539636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>234796.0894115812</v>
+        <v>312391.1648051222</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.7759958404285</v>
+        <v>239.5561909224995</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.8727163152885</v>
+        <v>327.7713488932687</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.7887237407169</v>
+        <v>296.4893113849701</v>
       </c>
       <c r="AD3" t="n">
-        <v>176775.9958404285</v>
+        <v>239556.1909224995</v>
       </c>
       <c r="AE3" t="n">
-        <v>241872.7163152885</v>
+        <v>327771.3488932687</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3305917766305e-06</v>
+        <v>3.574537560377516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>218788.7237407169</v>
+        <v>296489.31138497</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.1101176152241</v>
+        <v>230.7880277544143</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.329876467976</v>
+        <v>315.7743612226423</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.2022531700603</v>
+        <v>285.6372993797464</v>
       </c>
       <c r="AD2" t="n">
-        <v>177110.1176152241</v>
+        <v>230788.0277544143</v>
       </c>
       <c r="AE2" t="n">
-        <v>242329.876467976</v>
+        <v>315774.3612226422</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.363055535318213e-06</v>
+        <v>3.692227661800456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>219202.2531700603</v>
+        <v>285637.2993797464</v>
       </c>
     </row>
   </sheetData>
@@ -14045,28 +14045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9082645423597</v>
+        <v>237.4487291202695</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.2124716041255</v>
+        <v>324.8878266808061</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.764123437073</v>
+        <v>293.8809884854151</v>
       </c>
       <c r="AD2" t="n">
-        <v>171908.2645423597</v>
+        <v>237448.7291202695</v>
       </c>
       <c r="AE2" t="n">
-        <v>235212.4716041255</v>
+        <v>324887.8266808061</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31128050222189e-06</v>
+        <v>3.766638671360283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>212764.123437073</v>
+        <v>293880.9884854151</v>
       </c>
     </row>
   </sheetData>
@@ -14342,28 +14342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.4387071758076</v>
+        <v>345.0282165827778</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.02617007166</v>
+        <v>472.0828274991886</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.7113917350114</v>
+        <v>427.0279050150751</v>
       </c>
       <c r="AD2" t="n">
-        <v>270438.7071758076</v>
+        <v>345028.2165827778</v>
       </c>
       <c r="AE2" t="n">
-        <v>370026.17007166</v>
+        <v>472082.8274991886</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.778832611846047e-06</v>
+        <v>2.62801315563756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>334711.3917350114</v>
+        <v>427027.9050150751</v>
       </c>
     </row>
     <row r="3">
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.1781426323537</v>
+        <v>279.3851155455336</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.6797395053498</v>
+        <v>382.2670406908007</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.8422345421307</v>
+        <v>345.7840108424312</v>
       </c>
       <c r="AD3" t="n">
-        <v>213178.1426323536</v>
+        <v>279385.1155455336</v>
       </c>
       <c r="AE3" t="n">
-        <v>291679.7395053498</v>
+        <v>382267.0406908008</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.104248636749596e-06</v>
+        <v>3.108776544394131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>263842.2345421307</v>
+        <v>345784.0108424312</v>
       </c>
     </row>
     <row r="4">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.3908958705789</v>
+        <v>262.6831201297792</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.7106878848429</v>
+        <v>359.4146337229314</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.0653169710113</v>
+        <v>325.1126055220207</v>
       </c>
       <c r="AD4" t="n">
-        <v>196390.8958705789</v>
+        <v>262683.1201297792</v>
       </c>
       <c r="AE4" t="n">
-        <v>268710.6878848429</v>
+        <v>359414.6337229314</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.18024797620165e-06</v>
+        <v>3.221056509675682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.70052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>243065.3169710113</v>
+        <v>325112.6055220207</v>
       </c>
     </row>
   </sheetData>
@@ -14851,28 +14851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.2359282373287</v>
+        <v>415.4405052983745</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.8433659952408</v>
+        <v>568.4240272908095</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.7200693108014</v>
+        <v>514.1744359143069</v>
       </c>
       <c r="AD2" t="n">
-        <v>330235.9282373287</v>
+        <v>415440.5052983745</v>
       </c>
       <c r="AE2" t="n">
-        <v>451843.3659952409</v>
+        <v>568424.0272908094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531537593386515e-06</v>
+        <v>2.22405143938662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>408720.0693108014</v>
+        <v>514174.4359143068</v>
       </c>
     </row>
     <row r="3">
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.3489579372858</v>
+        <v>317.4955693169215</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.1702447492825</v>
+        <v>434.4114448553728</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.6094354259585</v>
+        <v>392.9518262586674</v>
       </c>
       <c r="AD3" t="n">
-        <v>249348.9579372858</v>
+        <v>317495.5693169215</v>
       </c>
       <c r="AE3" t="n">
-        <v>341170.2447492825</v>
+        <v>434411.4448553728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.891190456991385e-06</v>
+        <v>2.746328184295788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>308609.4354259585</v>
+        <v>392951.8262586674</v>
       </c>
     </row>
     <row r="4">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.3535307588613</v>
+        <v>293.4148012839249</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.3386426802438</v>
+        <v>401.4630756641196</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.9112353789355</v>
+        <v>363.1480031797008</v>
       </c>
       <c r="AD4" t="n">
-        <v>225353.5307588613</v>
+        <v>293414.801283925</v>
       </c>
       <c r="AE4" t="n">
-        <v>308338.6426802438</v>
+        <v>401463.0756641196</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027246471026604e-06</v>
+        <v>2.943904512267693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>278911.2353789355</v>
+        <v>363148.0031797008</v>
       </c>
     </row>
     <row r="5">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.5942877198312</v>
+        <v>276.7408095909153</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.4079069886333</v>
+        <v>378.6489846251466</v>
       </c>
       <c r="AC5" t="n">
-        <v>258.1689769182354</v>
+        <v>342.5112569697095</v>
       </c>
       <c r="AD5" t="n">
-        <v>208594.2877198312</v>
+        <v>276740.8095909153</v>
       </c>
       <c r="AE5" t="n">
-        <v>285407.9069886333</v>
+        <v>378648.9846251466</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.080577581671971e-06</v>
+        <v>3.021350298715965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>258168.9769182354</v>
+        <v>342511.2569697095</v>
       </c>
     </row>
     <row r="6">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>208.8389305488139</v>
+        <v>276.985452419898</v>
       </c>
       <c r="AB6" t="n">
-        <v>285.7426381001271</v>
+        <v>378.9837157366405</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.4717617622464</v>
+        <v>342.8140418137206</v>
       </c>
       <c r="AD6" t="n">
-        <v>208838.9305488139</v>
+        <v>276985.4524198979</v>
       </c>
       <c r="AE6" t="n">
-        <v>285742.6381001271</v>
+        <v>378983.7157366405</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.080672476886642e-06</v>
+        <v>3.021488102606443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>258471.7617622464</v>
+        <v>342814.0418137205</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3540735714813</v>
+        <v>245.3097979578099</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.136644237447</v>
+        <v>335.6436878702044</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4548311734646</v>
+        <v>303.6103253788465</v>
       </c>
       <c r="AD2" t="n">
-        <v>181354.0735714813</v>
+        <v>245309.7979578099</v>
       </c>
       <c r="AE2" t="n">
-        <v>248136.644237447</v>
+        <v>335643.6878702043</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.152758747972722e-06</v>
+        <v>3.588520573567099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>224454.8311734646</v>
+        <v>303610.3253788465</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.1377199339996</v>
+        <v>262.678047740529</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.4690137497385</v>
+        <v>359.4076934561813</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.4649534902058</v>
+        <v>325.1063276245885</v>
       </c>
       <c r="AD2" t="n">
-        <v>199137.7199339996</v>
+        <v>262678.047740529</v>
       </c>
       <c r="AE2" t="n">
-        <v>272469.0137497385</v>
+        <v>359407.6934561813</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.161618316043754e-06</v>
+        <v>3.289781228822208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>246464.9534902058</v>
+        <v>325106.3276245884</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.4385055657906</v>
+        <v>243.8934925177451</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.8839237000518</v>
+        <v>333.7058362841224</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.3216685259538</v>
+        <v>301.8574196283479</v>
       </c>
       <c r="AD3" t="n">
-        <v>180438.5055657906</v>
+        <v>243893.4925177451</v>
       </c>
       <c r="AE3" t="n">
-        <v>246883.9237000518</v>
+        <v>333705.8362841224</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301977712574565e-06</v>
+        <v>3.50339512382333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.77864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>223321.6685259537</v>
+        <v>301857.4196283479</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.2921045037779</v>
+        <v>308.6219632365815</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.8829906720463</v>
+        <v>422.2701855403803</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.113105246617</v>
+        <v>381.9693116923333</v>
       </c>
       <c r="AD2" t="n">
-        <v>243292.1045037779</v>
+        <v>308621.9632365815</v>
       </c>
       <c r="AE2" t="n">
-        <v>332882.9906720463</v>
+        <v>422270.1855403803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.915676255512744e-06</v>
+        <v>2.859933568137757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>301113.105246617</v>
+        <v>381969.3116923333</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.1068937286589</v>
+        <v>256.3513220983359</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4808830405495</v>
+        <v>350.7511883169304</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.52551455396</v>
+        <v>317.275987186452</v>
       </c>
       <c r="AD3" t="n">
-        <v>191106.8937286589</v>
+        <v>256351.3220983359</v>
       </c>
       <c r="AE3" t="n">
-        <v>261480.8830405495</v>
+        <v>350751.1883169304</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.221090689851249e-06</v>
+        <v>3.315890043270193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>236525.51455396</v>
+        <v>317275.987186452</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.0488364039685</v>
+        <v>255.2932647736454</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.0332023307138</v>
+        <v>349.3035076070949</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.215998459238</v>
+        <v>315.9664710917301</v>
       </c>
       <c r="AD4" t="n">
-        <v>190048.8364039685</v>
+        <v>255293.2647736454</v>
       </c>
       <c r="AE4" t="n">
-        <v>260033.2023307139</v>
+        <v>349303.5076070949</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.231580585174465e-06</v>
+        <v>3.331550520177386e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>235215.998459238</v>
+        <v>315966.4710917301</v>
       </c>
     </row>
   </sheetData>
